--- a/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 5,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; -1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,8; -4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 7,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; -3,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; 0,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 5,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; -4,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -2,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; 23,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,82; -3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,36; -17,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 28,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,59; -14,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,25; 1,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 20,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,03; -15,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,54; -8,26</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 1,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 2,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 1,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,41; 76,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; 49,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 55,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 55,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,6; 39,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,89; 16,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 58,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 37,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; 22,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 1,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 0,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 0,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,9; 33,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,94; 15,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,41; 13,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,37; 26,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,41; 20,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,26; 9,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,2; 15,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,14; 0,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,68; 1,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; -1,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; -1,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 3,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; -2,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; -2,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 3,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; -2,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; -2,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 26,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,53; -8,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,12; -12,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 26,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,92; -16,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,65; -18,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 22,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,72; -16,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,82; -18,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,76</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,48</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -4,38</t>
+          <t>-12,92; -4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,37</t>
+          <t>-6,92; 0,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -2,23</t>
+          <t>-8,5; -2,37</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,35%</t>
+          <t>-32,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,63%</t>
+          <t>-19,06%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,36; -17,32</t>
+          <t>-44,51; -17,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 1,26</t>
+          <t>-21,95; 1,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,54; -8,26</t>
+          <t>-27,75; -8,81</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,48</t>
+          <t>-2,55; 2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,24</t>
+          <t>-3,69; 0,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,68</t>
+          <t>-2,37; 1,01</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>-4,94%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 55,39</t>
+          <t>-29,03; 38,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 16,8</t>
+          <t>-40,34; 8,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 22,96</t>
+          <t>-26,67; 13,69</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,39</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 1,06</t>
+          <t>-6,44; 1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 0,72</t>
+          <t>-6,04; 0,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,0</t>
+          <t>-4,94; 0,04</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>-20,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>-25,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,73%</t>
+          <t>-23,5%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 13,82</t>
+          <t>-47,78; 13,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 9,7</t>
+          <t>-49,67; 11,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 1,52</t>
+          <t>-41,12; 1,15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,58</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,61</t>
+          <t>-6,16; -2,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -2,71</t>
+          <t>-7,37; -3,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -2,56</t>
+          <t>-6,29; -3,15</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>-29,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-27,45%</t>
+          <t>-31,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-30,68%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,12; -12,68</t>
+          <t>-44,04; -17,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,65; -18,58</t>
+          <t>-44,63; -22,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,82; -18,14</t>
+          <t>-40,83; -22,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,71</t>
+          <t>-4,02; 5,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -1,06</t>
+          <t>-11,83; -1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -4,38</t>
+          <t>-12,87; -4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,79</t>
+          <t>-1,23; 7,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -3,77</t>
+          <t>-13,22; -4,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,41</t>
+          <t>-7,56; 0,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,6</t>
+          <t>-0,85; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -4,14</t>
+          <t>-11,18; -4,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -2,37</t>
+          <t>-8,6; -2,76</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 23,24</t>
+          <t>-13,94; 19,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; -3,72</t>
+          <t>-39,39; -4,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,51; -17,33</t>
+          <t>-44,16; -16,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 28,39</t>
+          <t>-3,72; 26,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -14,22</t>
+          <t>-41,32; -15,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 1,24</t>
+          <t>-23,15; 0,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 20,95</t>
+          <t>-2,87; 19,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,03; -15,24</t>
+          <t>-36,79; -16,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,75; -8,81</t>
+          <t>-28,26; -10,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,13</t>
+          <t>0,66; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,26</t>
+          <t>-1,08; 3,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,51</t>
+          <t>-2,27; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,1</t>
+          <t>-0,19; 4,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,91</t>
+          <t>-1,15; 3,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,72</t>
+          <t>-3,88; 0,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,1</t>
+          <t>0,81; 3,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,63</t>
+          <t>-0,44; 2,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,01</t>
+          <t>-2,25; 1,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 76,53</t>
+          <t>7,79; 82,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 49,74</t>
+          <t>-12,82; 49,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 38,75</t>
+          <t>-27,28; 40,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 55,66</t>
+          <t>-1,97; 55,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 39,61</t>
+          <t>-12,55; 44,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 8,01</t>
+          <t>-42,05; 7,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 58,2</t>
+          <t>8,89; 53,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 37,1</t>
+          <t>-5,19; 34,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 13,69</t>
+          <t>-26,0; 14,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,88</t>
+          <t>-6,18; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 0,85</t>
+          <t>-6,56; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,06</t>
+          <t>-5,95; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,89</t>
+          <t>-5,94; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 1,52</t>
+          <t>-5,94; 1,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,81</t>
+          <t>-5,87; 0,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,39</t>
+          <t>-4,65; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,02</t>
+          <t>-5,35; 0,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,04</t>
+          <t>-5,03; 0,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 33,84</t>
+          <t>-49,1; 27,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 15,43</t>
+          <t>-52,75; 13,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 13,4</t>
+          <t>-44,44; 18,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 26,71</t>
+          <t>-52,58; 28,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 20,31</t>
+          <t>-51,58; 22,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 11,38</t>
+          <t>-49,1; 12,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 15,83</t>
+          <t>-40,09; 11,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 0,16</t>
+          <t>-46,62; -0,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 1,15</t>
+          <t>-41,77; 1,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,21</t>
+          <t>-0,62; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; -1,07</t>
+          <t>-4,8; -0,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -2,19</t>
+          <t>-6,51; -2,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,99</t>
+          <t>0,24; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -2,53</t>
+          <t>-6,35; -2,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -3,29</t>
+          <t>-7,22; -3,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,11</t>
+          <t>0,47; 3,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -2,41</t>
+          <t>-5,05; -2,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -3,15</t>
+          <t>-6,35; -3,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 26,05</t>
+          <t>-4,31; 26,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -8,61</t>
+          <t>-32,52; -7,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,04; -17,87</t>
+          <t>-45,44; -18,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 26,31</t>
+          <t>1,44; 26,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -16,58</t>
+          <t>-37,2; -17,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,63; -22,08</t>
+          <t>-43,3; -20,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,81; 22,03</t>
+          <t>3,02; 22,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,72; -16,91</t>
+          <t>-32,47; -15,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,83; -22,47</t>
+          <t>-41,19; -22,85</t>
         </is>
       </c>
     </row>
